--- a/Aerodynamics_HW/final_report/my_result.xlsx
+++ b/Aerodynamics_HW/final_report/my_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MATLAB_Jungsuk\Aerodynamics_HW\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE4DC7-F490-456C-BE57-A80699E8406E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222293F2-72BA-4B76-A64E-47F30AAE0433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="204" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{63975602-D778-49C9-9B23-C56EE98891DA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,18 +54,6 @@
   <si>
     <t>dT momentum</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iter</t>
-  </si>
-  <si>
-    <t>Vi</t>
-  </si>
-  <si>
-    <t>dT aero</t>
-  </si>
-  <si>
-    <t>dT momentum</t>
   </si>
 </sst>
 </file>
@@ -429,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13F7CA4-C36C-4D5F-A738-0EE9BD8D60C5}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D131"/>
+      <selection activeCell="A2" sqref="A2:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2269,6 +2257,20 @@
       </c>
       <c r="D131">
         <v>0.33261997717045988</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1.310010000000001</v>
+      </c>
+      <c r="C132">
+        <v>0.33921644895749353</v>
+      </c>
+      <c r="D132">
+        <v>0.33666214872669326</v>
       </c>
     </row>
   </sheetData>
@@ -2279,26 +2281,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C5B48-BB4B-42FF-81DA-F38828AF9BC9}">
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D221"/>
+      <selection activeCell="A2" sqref="A2:D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -5379,6 +5381,20 @@
       </c>
       <c r="D221">
         <v>1.5732075129517846</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2.2100099999999969</v>
+      </c>
+      <c r="C222">
+        <v>1.5932920090374092</v>
+      </c>
+      <c r="D222">
+        <v>1.5853452645696189</v>
       </c>
     </row>
   </sheetData>
@@ -5389,26 +5405,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC46602-8502-4EA6-980B-3F4E48A3D9A3}">
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D299"/>
+      <selection activeCell="A2" sqref="A2:D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -9581,6 +9597,20 @@
       </c>
       <c r="D299">
         <v>3.9828013044079187</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>2.9900099999999803</v>
+      </c>
+      <c r="C300">
+        <v>4.0266911222529655</v>
+      </c>
+      <c r="D300">
+        <v>4.0062773628916482</v>
       </c>
     </row>
   </sheetData>
@@ -9591,26 +9621,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D239948-037D-4DE7-ADD0-4948554097DA}">
-  <dimension ref="A1:D373"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D373"/>
+      <selection activeCell="A2" sqref="A2:D374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -14819,6 +14849,20 @@
       </c>
       <c r="D373">
         <v>7.8700007623384369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>3.7300099999999645</v>
+      </c>
+      <c r="C374">
+        <v>7.9683527677658184</v>
+      </c>
+      <c r="D374">
+        <v>7.9079677787477918</v>
       </c>
     </row>
   </sheetData>
@@ -14829,26 +14873,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71DE7A7-3FD5-463F-AC23-DF4F618D1B8E}">
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D427"/>
+      <selection activeCell="A2" sqref="A2:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -20813,6 +20857,20 @@
       </c>
       <c r="D427">
         <v>12.561397548642812</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>4.270009999999953</v>
+      </c>
+      <c r="C428">
+        <v>12.698510494939628</v>
+      </c>
+      <c r="D428">
+        <v>12.614936431912556</v>
       </c>
     </row>
   </sheetData>
